--- a/config_12.01/fish_config.xlsx
+++ b/config_12.01/fish_config.xlsx
@@ -1195,11 +1195,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>by_imgf_zp55</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy_1</t>
+    <t>3dby_imgf_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.01/fish_config.xlsx
+++ b/config_12.01/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1184,6 +1184,18 @@
   </si>
   <si>
     <t>by_imgf_zp54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp55</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1654,11 +1666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28:G29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4071,6 +4083,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="34" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="14">
+        <v>30</v>
+      </c>
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+      <c r="L34" s="14">
+        <v>200</v>
+      </c>
+      <c r="M34" s="14">
+        <v>4</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="19">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="V34" s="14"/>
+      <c r="W34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X34" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.01/fish_config.xlsx
+++ b/config_12.01/fish_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1196,6 +1196,10 @@
   </si>
   <si>
     <t>by_imgf_zp55</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1670,7 +1674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4094,7 +4098,7 @@
         <v>194</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>193</v>
